--- a/jpcore-r4/feature/swg2-diagnosticcategory/ValueSet-jp-radiologymodality-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/ValueSet-jp-radiologymodality-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from sect_CID_33.html" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DICOM" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -543,7 +543,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_33.html</t>
+    <t>http://dicom.nema.org/resources/ontology/DCM</t>
   </si>
 </sst>
 </file>
